--- a/data/trans_orig/P44D-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P44D-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>7640</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>3056</v>
+        <v>2551</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>13666</v>
+        <v>13414</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3786710270023182</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1514557396479491</v>
+        <v>0.1264116725099345</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.6773253907149015</v>
+        <v>0.6648084266665527</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -764,19 +764,19 @@
         <v>5735</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>2178</v>
+        <v>2281</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9380</v>
+        <v>9818</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4288125271700112</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1628808847082652</v>
+        <v>0.1705237864580792</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7013276850369835</v>
+        <v>0.7341312809931513</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -785,19 +785,19 @@
         <v>13376</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>7354</v>
+        <v>7621</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>21057</v>
+        <v>20362</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3986581745689573</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2191930554166769</v>
+        <v>0.2271308576584884</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.6275907718469778</v>
+        <v>0.606877508144412</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>12537</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6511</v>
+        <v>6763</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17121</v>
+        <v>17626</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6213289729976819</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.3226746092850983</v>
+        <v>0.3351915733334477</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.84854426035205</v>
+        <v>0.8735883274900655</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>7</v>
@@ -835,19 +835,19 @@
         <v>7639</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3994</v>
+        <v>3556</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>11196</v>
+        <v>11093</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5711874728299887</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2986723149630168</v>
+        <v>0.2658687190068488</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8371191152917348</v>
+        <v>0.8294762135419208</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>18</v>
@@ -856,19 +856,19 @@
         <v>20176</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>12495</v>
+        <v>13190</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>26198</v>
+        <v>25931</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6013418254310428</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3724092281530211</v>
+        <v>0.3931224918555883</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7808069445833229</v>
+        <v>0.7728691423415116</v>
       </c>
     </row>
     <row r="6">
@@ -960,19 +960,19 @@
         <v>6026</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>2185</v>
+        <v>2149</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>10756</v>
+        <v>10601</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3970068512575056</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1439738434660663</v>
+        <v>0.1415774079768852</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.708645034176969</v>
+        <v>0.6984154441935788</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>2</v>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>6313</v>
+        <v>6390</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4076555128837553</v>
@@ -993,7 +993,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.8695867696538419</v>
+        <v>0.880179681948057</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>7</v>
@@ -1002,19 +1002,19 @@
         <v>8985</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4523</v>
+        <v>4250</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14393</v>
+        <v>14706</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4004521430724985</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2015600863010006</v>
+        <v>0.1894254879095462</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.6414779505394242</v>
+        <v>0.6554134414129283</v>
       </c>
     </row>
     <row r="8">
@@ -1031,19 +1031,19 @@
         <v>9152</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>4422</v>
+        <v>4577</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>12993</v>
+        <v>13029</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6029931487424943</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2913549658230306</v>
+        <v>0.301584555806421</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8560261565339338</v>
+        <v>0.8584225920231148</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>4</v>
@@ -1052,7 +1052,7 @@
         <v>4300</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>947</v>
+        <v>870</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>7260</v>
@@ -1061,7 +1061,7 @@
         <v>0.5923444871162447</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.1304132303461581</v>
+        <v>0.1198203180519429</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -1073,19 +1073,19 @@
         <v>13453</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>8045</v>
+        <v>7732</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>17915</v>
+        <v>18188</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5995478569275015</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.3585220494605755</v>
+        <v>0.3445865585870716</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7984399136989994</v>
+        <v>0.8105745120904538</v>
       </c>
     </row>
     <row r="9">
@@ -1180,7 +1180,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>5139</v>
+        <v>5135</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.03361391063456771</v>
@@ -1189,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1754695923381455</v>
+        <v>0.1753436317402729</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -1198,19 +1198,19 @@
         <v>3837</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>982</v>
+        <v>967</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>8164</v>
+        <v>7762</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3519693599576009</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.09004671405628602</v>
+        <v>0.08869523996697272</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.748856287334187</v>
+        <v>0.7119984952585056</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>4</v>
@@ -1219,19 +1219,19 @@
         <v>4822</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1834</v>
+        <v>1047</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>11210</v>
+        <v>11035</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1199746082444648</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.04563786069310325</v>
+        <v>0.02604350443393837</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2789168618819003</v>
+        <v>0.2745587935688679</v>
       </c>
     </row>
     <row r="11">
@@ -1248,7 +1248,7 @@
         <v>28304</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>24149</v>
+        <v>24153</v>
       </c>
       <c r="F11" s="5" t="n">
         <v>29288</v>
@@ -1257,7 +1257,7 @@
         <v>0.9663860893654322</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.824530407661855</v>
+        <v>0.824656368259728</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>1</v>
@@ -1269,19 +1269,19 @@
         <v>7065</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>2738</v>
+        <v>3140</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>9920</v>
+        <v>9935</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6480306400423991</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2511437126658128</v>
+        <v>0.2880015047414943</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9099532859437139</v>
+        <v>0.9113047600330273</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>29</v>
@@ -1290,19 +1290,19 @@
         <v>35368</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>28980</v>
+        <v>29155</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>38356</v>
+        <v>39143</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.8800253917555352</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7210831381180993</v>
+        <v>0.7254412064311323</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9543621393068967</v>
+        <v>0.9739564955660616</v>
       </c>
     </row>
     <row r="12">
@@ -1579,7 +1579,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9027</v>
+        <v>9226</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1136938978944474</v>
@@ -1588,7 +1588,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3352132521850286</v>
+        <v>0.342589753161181</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>2</v>
@@ -1600,7 +1600,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>10161</v>
+        <v>9320</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.08388716635820884</v>
@@ -1609,7 +1609,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.278386569679811</v>
+        <v>0.2553686630400744</v>
       </c>
     </row>
     <row r="17">
@@ -1639,7 +1639,7 @@
         <v>23868</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>17903</v>
+        <v>17704</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>26930</v>
@@ -1648,7 +1648,7 @@
         <v>0.8863061021055526</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6647867478149702</v>
+        <v>0.6574102468388191</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -1660,7 +1660,7 @@
         <v>33436</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>26337</v>
+        <v>27178</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>36498</v>
@@ -1669,7 +1669,7 @@
         <v>0.9161128336417912</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7216134303201893</v>
+        <v>0.7446313369599256</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -1776,7 +1776,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9612</v>
+        <v>9855</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08648835517952204</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.28202728103923</v>
+        <v>0.289150396588903</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>2</v>
@@ -1797,7 +1797,7 @@
         <v>0</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9612</v>
+        <v>9855</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08648835517952204</v>
@@ -1806,7 +1806,7 @@
         <v>0</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.28202728103923</v>
+        <v>0.289150396588903</v>
       </c>
     </row>
     <row r="20">
@@ -1832,7 +1832,7 @@
         <v>31135</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>24471</v>
+        <v>24228</v>
       </c>
       <c r="M20" s="5" t="n">
         <v>34083</v>
@@ -1841,7 +1841,7 @@
         <v>0.913511644820478</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.71797271896077</v>
+        <v>0.7108496034110969</v>
       </c>
       <c r="P20" s="6" t="n">
         <v>1</v>
@@ -1853,7 +1853,7 @@
         <v>31135</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>24471</v>
+        <v>24228</v>
       </c>
       <c r="T20" s="5" t="n">
         <v>34083</v>
@@ -1862,7 +1862,7 @@
         <v>0.913511644820478</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.71797271896077</v>
+        <v>0.7108496034110969</v>
       </c>
       <c r="W20" s="6" t="n">
         <v>1</v>
@@ -1945,19 +1945,19 @@
         <v>14651</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>7649</v>
+        <v>7720</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>25553</v>
+        <v>24225</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1299922321537755</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.06786992046948946</v>
+        <v>0.06849935987186968</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2267252243656264</v>
+        <v>0.2149385206294889</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>14</v>
@@ -1966,19 +1966,19 @@
         <v>18541</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>11302</v>
+        <v>11035</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>29504</v>
+        <v>28987</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1716458091500591</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1046246241207659</v>
+        <v>0.1021525472155045</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2731389129185585</v>
+        <v>0.2683447828119877</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>25</v>
@@ -1987,19 +1987,19 @@
         <v>33192</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>21993</v>
+        <v>23066</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>45623</v>
+        <v>47562</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1503768954503908</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.09963867063287986</v>
+        <v>0.1045013887198288</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2066952955218107</v>
+        <v>0.2154780005164692</v>
       </c>
     </row>
     <row r="23">
@@ -2016,19 +2016,19 @@
         <v>98055</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>87153</v>
+        <v>88481</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>105057</v>
+        <v>104986</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8700077678462245</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7732747756343737</v>
+        <v>0.785061479370511</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9321300795305105</v>
+        <v>0.9315006401281303</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>84</v>
@@ -2037,19 +2037,19 @@
         <v>89479</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>78516</v>
+        <v>79033</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>96718</v>
+        <v>96985</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8283541908499409</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7268610870814411</v>
+        <v>0.7316552171880123</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8953753758792334</v>
+        <v>0.8978474527844956</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>170</v>
@@ -2058,19 +2058,19 @@
         <v>187534</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>175103</v>
+        <v>173164</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>198733</v>
+        <v>197660</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8496231045496092</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7933047044781892</v>
+        <v>0.7845219994835309</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9003613293671201</v>
+        <v>0.8954986112801709</v>
       </c>
     </row>
     <row r="24">
@@ -2404,19 +2404,19 @@
         <v>9787</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4899</v>
+        <v>5104</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>16068</v>
+        <v>16166</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.336914590813631</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1686303087448003</v>
+        <v>0.1756873623160694</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5531322017732309</v>
+        <v>0.55649242994841</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>5</v>
@@ -2425,19 +2425,19 @@
         <v>5418</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1794</v>
+        <v>1877</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>9165</v>
+        <v>9154</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4886281588785462</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1617406255370814</v>
+        <v>0.1692568905583355</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.8264805316456314</v>
+        <v>0.8255015159386323</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>14</v>
@@ -2446,19 +2446,19 @@
         <v>15205</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>9618</v>
+        <v>8929</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>23155</v>
+        <v>22229</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3788274773310839</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2396292682867673</v>
+        <v>0.2224525295907553</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5768752616707096</v>
+        <v>0.5538229325047124</v>
       </c>
     </row>
     <row r="5">
@@ -2475,19 +2475,19 @@
         <v>19262</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>12981</v>
+        <v>12883</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24150</v>
+        <v>23945</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.663085409186369</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.446867798226769</v>
+        <v>0.4435075700515901</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8313696912551997</v>
+        <v>0.8243126376839307</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>4</v>
@@ -2496,19 +2496,19 @@
         <v>5671</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1924</v>
+        <v>1935</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>9295</v>
+        <v>9212</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5113718411214538</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1735194683543686</v>
+        <v>0.1744984840613677</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8382593744629186</v>
+        <v>0.8307431094416647</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>19</v>
@@ -2517,19 +2517,19 @@
         <v>24933</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>16983</v>
+        <v>17909</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30520</v>
+        <v>31209</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6211725226689161</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.4231247383292904</v>
+        <v>0.4461770674952876</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7603707317132327</v>
+        <v>0.7775474704092448</v>
       </c>
     </row>
     <row r="6">
@@ -2621,19 +2621,19 @@
         <v>8063</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>3925</v>
+        <v>3868</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>13235</v>
+        <v>13178</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3107098087233673</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1512399596340269</v>
+        <v>0.1490745861203906</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.5100088306332338</v>
+        <v>0.5078392474042862</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>1</v>
@@ -2645,7 +2645,7 @@
         <v>0</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>4343</v>
+        <v>3239</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2365931363716781</v>
@@ -2654,7 +2654,7 @@
         <v>0</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>1</v>
+        <v>0.7458148773172116</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>9</v>
@@ -2663,19 +2663,19 @@
         <v>9090</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>4467</v>
+        <v>4871</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>14693</v>
+        <v>14838</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.300084602738078</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1474629938353852</v>
+        <v>0.1607873878897902</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4850247406038867</v>
+        <v>0.4898154921371091</v>
       </c>
     </row>
     <row r="8">
@@ -2692,19 +2692,19 @@
         <v>17887</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>12715</v>
+        <v>12772</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>22025</v>
+        <v>22082</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6892901912766327</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4899911693667657</v>
+        <v>0.4921607525957137</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8487600403659731</v>
+        <v>0.8509254138796094</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>3</v>
@@ -2713,7 +2713,7 @@
         <v>3315</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0</v>
+        <v>1104</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>4343</v>
@@ -2722,7 +2722,7 @@
         <v>0.763406863628322</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0</v>
+        <v>0.2541851226827884</v>
       </c>
       <c r="P8" s="6" t="n">
         <v>1</v>
@@ -2734,19 +2734,19 @@
         <v>21203</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>15600</v>
+        <v>15455</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>25826</v>
+        <v>25422</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.699915397261922</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5149752593961132</v>
+        <v>0.5101845078628907</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8525370061646145</v>
+        <v>0.8392126121102098</v>
       </c>
     </row>
     <row r="9">
@@ -2838,19 +2838,19 @@
         <v>2987</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>903</v>
+        <v>929</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>8371</v>
+        <v>7314</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.09949786172680786</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.03008451944540078</v>
+        <v>0.03093477266505198</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.278873939845196</v>
+        <v>0.2436560981815201</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -2872,19 +2872,19 @@
         <v>2987</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>879</v>
+        <v>872</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>7423</v>
+        <v>7474</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.07991962043383691</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02351145036454783</v>
+        <v>0.02334690582401963</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1986260887895974</v>
+        <v>0.1999867349725477</v>
       </c>
     </row>
     <row r="11">
@@ -2901,19 +2901,19 @@
         <v>27031</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>21647</v>
+        <v>22704</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>29115</v>
+        <v>29089</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.9005021382731921</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7211260601548043</v>
+        <v>0.7563439018184787</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9699154805545993</v>
+        <v>0.9690652273349478</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -2935,19 +2935,19 @@
         <v>34384</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>29948</v>
+        <v>29897</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>36492</v>
+        <v>36499</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9200803795661631</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8013739112104019</v>
+        <v>0.8000132650274523</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9764885496354521</v>
+        <v>0.9766530941759803</v>
       </c>
     </row>
     <row r="12">
@@ -3042,7 +3042,7 @@
         <v>0</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>7326</v>
+        <v>6495</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04287213296697943</v>
@@ -3051,7 +3051,7 @@
         <v>0</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.151359347555871</v>
+        <v>0.1341835883316929</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>1</v>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>5482</v>
+        <v>6024</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.05370658501293572</v>
@@ -3072,7 +3072,7 @@
         <v>0</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2387171479392574</v>
+        <v>0.2623305851129842</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>3</v>
@@ -3081,19 +3081,19 @@
         <v>3308</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>997</v>
+        <v>1000</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>8216</v>
+        <v>9131</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.04635835962145003</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01397118257080373</v>
+        <v>0.01400679696753251</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.1151308258039076</v>
+        <v>0.1279524329676025</v>
       </c>
     </row>
     <row r="14">
@@ -3110,7 +3110,7 @@
         <v>46327</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>41076</v>
+        <v>41907</v>
       </c>
       <c r="F14" s="5" t="n">
         <v>48402</v>
@@ -3119,7 +3119,7 @@
         <v>0.9571278670330206</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.8486406524441289</v>
+        <v>0.8658164116683071</v>
       </c>
       <c r="I14" s="6" t="n">
         <v>1</v>
@@ -3131,7 +3131,7 @@
         <v>21730</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>17481</v>
+        <v>16939</v>
       </c>
       <c r="M14" s="5" t="n">
         <v>22963</v>
@@ -3140,7 +3140,7 @@
         <v>0.9462934149870643</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.76128285206074</v>
+        <v>0.7376694148870159</v>
       </c>
       <c r="P14" s="6" t="n">
         <v>1</v>
@@ -3152,19 +3152,19 @@
         <v>68057</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>63149</v>
+        <v>62234</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>70368</v>
+        <v>70365</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.9536416403785499</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.8848691741960923</v>
+        <v>0.8720475670323972</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9860288174291962</v>
+        <v>0.9859932030324675</v>
       </c>
     </row>
     <row r="15">
@@ -3434,19 +3434,19 @@
         <v>4725</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1123</v>
+        <v>1137</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>10703</v>
+        <v>10765</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1298002121616131</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.03083669276526066</v>
+        <v>0.03124606623099551</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.294008719890032</v>
+        <v>0.2957265860079754</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -3455,19 +3455,19 @@
         <v>4725</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1123</v>
+        <v>1137</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10703</v>
+        <v>10765</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1298002121616131</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.03083669276526066</v>
+        <v>0.03124606623099551</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.294008719890032</v>
+        <v>0.2957265860079754</v>
       </c>
     </row>
     <row r="20">
@@ -3493,19 +3493,19 @@
         <v>31678</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>25700</v>
+        <v>25638</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>35280</v>
+        <v>35266</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8701997878383868</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7059912801099706</v>
+        <v>0.7042734139920248</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9691633072347393</v>
+        <v>0.9687539337690044</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>27</v>
@@ -3514,19 +3514,19 @@
         <v>31678</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>25700</v>
+        <v>25638</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35280</v>
+        <v>35266</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.8701997878383868</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7059912801099706</v>
+        <v>0.7042734139920248</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9691633072347393</v>
+        <v>0.9687539337690044</v>
       </c>
     </row>
     <row r="21">
@@ -3606,19 +3606,19 @@
         <v>22912</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>15258</v>
+        <v>14851</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>33296</v>
+        <v>31809</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.145419255586537</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.09684172350371255</v>
+        <v>0.09425805024546974</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.211324891134571</v>
+        <v>0.201887416071744</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>11</v>
@@ -3627,19 +3627,19 @@
         <v>12404</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6486</v>
+        <v>6595</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21211</v>
+        <v>20770</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1152863555924197</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.0602861010860622</v>
+        <v>0.06129336520077826</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.197137697316621</v>
+        <v>0.1930408167183986</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>33</v>
@@ -3648,19 +3648,19 @@
         <v>35316</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>25534</v>
+        <v>24896</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>47676</v>
+        <v>46926</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.1331918402265282</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0963000485316079</v>
+        <v>0.09389164175154646</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1798063556285448</v>
+        <v>0.1769781249801828</v>
       </c>
     </row>
     <row r="23">
@@ -3677,19 +3677,19 @@
         <v>134646</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>124262</v>
+        <v>125749</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>142300</v>
+        <v>142707</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.854580744413463</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.788675108865429</v>
+        <v>0.7981125839282561</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9031582764962874</v>
+        <v>0.9057419497545303</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>81</v>
@@ -3698,19 +3698,19 @@
         <v>95190</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>86383</v>
+        <v>86824</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>101108</v>
+        <v>100999</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8847136444075804</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8028623026833789</v>
+        <v>0.8069591832815999</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9397138989139378</v>
+        <v>0.9387066347992211</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>210</v>
@@ -3719,19 +3719,19 @@
         <v>229837</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>217477</v>
+        <v>218227</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>239619</v>
+        <v>240257</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.8668081597734718</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8201936443714553</v>
+        <v>0.8230218750198173</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9036999514683921</v>
+        <v>0.9061083582484537</v>
       </c>
     </row>
     <row r="24">
@@ -4065,19 +4065,19 @@
         <v>30999</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>21683</v>
+        <v>22576</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>40239</v>
+        <v>40486</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.225067463130762</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1574282218059502</v>
+        <v>0.163914009689998</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2921575747099136</v>
+        <v>0.2939474431405945</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>29</v>
@@ -4086,19 +4086,19 @@
         <v>18125</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13006</v>
+        <v>12964</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>24234</v>
+        <v>24907</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2181373221669616</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1565361362364315</v>
+        <v>0.1560314313633856</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2916722270104102</v>
+        <v>0.2997631322216114</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>66</v>
@@ -4107,19 +4107,19 @@
         <v>49124</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>39255</v>
+        <v>38952</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>61497</v>
+        <v>60812</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2224598687288692</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.177767328617606</v>
+        <v>0.1763957366074468</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2784944277434802</v>
+        <v>0.2753922198544966</v>
       </c>
     </row>
     <row r="5">
@@ -4136,19 +4136,19 @@
         <v>106733</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>97493</v>
+        <v>97246</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>116049</v>
+        <v>115156</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.7749325368692378</v>
+        <v>0.774932536869238</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7078424252900863</v>
+        <v>0.7060525568594052</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8425717781940496</v>
+        <v>0.836085990310002</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>105</v>
@@ -4157,19 +4157,19 @@
         <v>64963</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>58854</v>
+        <v>58181</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>70082</v>
+        <v>70124</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7818626778330384</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7083277729895896</v>
+        <v>0.7002368677783887</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8434638637635686</v>
+        <v>0.8439685686366145</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>237</v>
@@ -4178,19 +4178,19 @@
         <v>171696</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>159323</v>
+        <v>160008</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>181565</v>
+        <v>181868</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7775401312711309</v>
+        <v>0.7775401312711308</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7215055722565203</v>
+        <v>0.7246077801455032</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8222326713823941</v>
+        <v>0.8236042633925532</v>
       </c>
     </row>
     <row r="6">
@@ -4282,19 +4282,19 @@
         <v>15502</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>9237</v>
+        <v>9599</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>23051</v>
+        <v>23362</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.1803072940744394</v>
+        <v>0.1803072940744393</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1074444776316522</v>
+        <v>0.1116521360212492</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2681178792002953</v>
+        <v>0.2717305865541865</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>14</v>
@@ -4303,19 +4303,19 @@
         <v>7850</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4613</v>
+        <v>4386</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>12782</v>
+        <v>12391</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1413901687838977</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.08308483257112542</v>
+        <v>0.0789945687778265</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2302134052120095</v>
+        <v>0.2231715113879282</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>31</v>
@@ -4324,19 +4324,19 @@
         <v>23352</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>16470</v>
+        <v>16753</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>32717</v>
+        <v>31829</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1650362664239252</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1163998038409027</v>
+        <v>0.118401713473615</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2312176126472347</v>
+        <v>0.2249445508106148</v>
       </c>
     </row>
     <row r="8">
@@ -4353,19 +4353,19 @@
         <v>70472</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>62923</v>
+        <v>62612</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>76737</v>
+        <v>76375</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8196927059255608</v>
+        <v>0.8196927059255606</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7318821207997043</v>
+        <v>0.7282694134458135</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8925555223683476</v>
+        <v>0.8883478639787509</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>77</v>
@@ -4374,19 +4374,19 @@
         <v>47673</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>42741</v>
+        <v>43132</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>50910</v>
+        <v>51137</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.8586098312161022</v>
+        <v>0.8586098312161021</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7697865947879905</v>
+        <v>0.7768284886120714</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9169151674288746</v>
+        <v>0.9210054312221734</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>164</v>
@@ -4395,19 +4395,19 @@
         <v>118145</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>108780</v>
+        <v>109668</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>125027</v>
+        <v>124744</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8349637335760748</v>
+        <v>0.8349637335760747</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7687823873527657</v>
+        <v>0.7750554491893853</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8836001961590976</v>
+        <v>0.8815982865263848</v>
       </c>
     </row>
     <row r="9">
@@ -4499,19 +4499,19 @@
         <v>5944</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2540</v>
+        <v>2408</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11790</v>
+        <v>11432</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.06500911151011532</v>
+        <v>0.06500911151011531</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02778270835060707</v>
+        <v>0.02633684728944924</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1289391684590559</v>
+        <v>0.1250216493618405</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>3</v>
@@ -4520,19 +4520,19 @@
         <v>2065</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>650</v>
+        <v>661</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>5055</v>
+        <v>5521</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.05732917395529472</v>
+        <v>0.0573291739552947</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01805426211392492</v>
+        <v>0.01834743407542924</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1403458715136069</v>
+        <v>0.153267352197783</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>10</v>
@@ -4541,19 +4541,19 @@
         <v>8009</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3989</v>
+        <v>4219</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>13896</v>
+        <v>14203</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.06283872487958955</v>
+        <v>0.06283872487958957</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.03129518741422463</v>
+        <v>0.03309927739942017</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1090237540521923</v>
+        <v>0.1114365913704168</v>
       </c>
     </row>
     <row r="11">
@@ -4570,19 +4570,19 @@
         <v>85494</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>79648</v>
+        <v>80006</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>88898</v>
+        <v>89030</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9349908884898849</v>
+        <v>0.9349908884898845</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.871060831540944</v>
+        <v>0.8749783506381594</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.972217291649393</v>
+        <v>0.9736631527105508</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>56</v>
@@ -4591,19 +4591,19 @@
         <v>33955</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>30965</v>
+        <v>30499</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>35370</v>
+        <v>35359</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.9426708260447054</v>
+        <v>0.9426708260447051</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.8596541284863936</v>
+        <v>0.846732647802217</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9819457378860751</v>
+        <v>0.9816525659245708</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>166</v>
@@ -4612,19 +4612,19 @@
         <v>119449</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>113562</v>
+        <v>113255</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>123469</v>
+        <v>123239</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.9371612751204105</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.8909762459478077</v>
+        <v>0.8885634086295832</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9687048125857748</v>
+        <v>0.9669007226005798</v>
       </c>
     </row>
     <row r="12">
@@ -4716,19 +4716,19 @@
         <v>3318</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>729</v>
+        <v>1188</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>8494</v>
+        <v>8048</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.01903868672536522</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.004181743415181865</v>
+        <v>0.006818456399933995</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04874686420861468</v>
+        <v>0.04618543075052037</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>7</v>
@@ -4737,19 +4737,19 @@
         <v>4243</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>1742</v>
+        <v>1802</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>7869</v>
+        <v>8550</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.04536616406069373</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01862300633292501</v>
+        <v>0.01927343761058937</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.0841412531071886</v>
+        <v>0.0914241094779286</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>11</v>
@@ -4758,19 +4758,19 @@
         <v>7560</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>3848</v>
+        <v>3572</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>13256</v>
+        <v>13098</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.02823355483221492</v>
+        <v>0.02823355483221491</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01437162509732636</v>
+        <v>0.01334076638880646</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0495024760053816</v>
+        <v>0.04891270827641638</v>
       </c>
     </row>
     <row r="14">
@@ -4787,19 +4787,19 @@
         <v>170939</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>165763</v>
+        <v>166209</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>173528</v>
+        <v>173069</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9809613132746348</v>
+        <v>0.9809613132746345</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9512531357913856</v>
+        <v>0.9538145692494793</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.995818256584818</v>
+        <v>0.9931815436000659</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>155</v>
@@ -4808,19 +4808,19 @@
         <v>89279</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>85653</v>
+        <v>84972</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>91780</v>
+        <v>91720</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.9546338359393064</v>
+        <v>0.9546338359393062</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9158587468928114</v>
+        <v>0.9085758905220718</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9813769936670752</v>
+        <v>0.9807265623894106</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>368</v>
@@ -4829,19 +4829,19 @@
         <v>260219</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>254523</v>
+        <v>254681</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>263931</v>
+        <v>264207</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9717664451677853</v>
+        <v>0.9717664451677851</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9504975239946184</v>
+        <v>0.9510872917235837</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9856283749026736</v>
+        <v>0.9866592336111938</v>
       </c>
     </row>
     <row r="15">
@@ -4949,16 +4949,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>2009</v>
+        <v>2264</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.003285265965254293</v>
+        <v>0.003285265965254292</v>
       </c>
       <c r="O16" s="6" t="n">
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.0166579441504744</v>
+        <v>0.01876612008680758</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1</v>
@@ -4970,7 +4970,7 @@
         <v>0</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>2271</v>
+        <v>1915</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.002032510592523348</v>
@@ -4979,7 +4979,7 @@
         <v>0</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01164862045208042</v>
+        <v>0.009824603768373753</v>
       </c>
     </row>
     <row r="17">
@@ -5009,7 +5009,7 @@
         <v>120224</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>118611</v>
+        <v>118356</v>
       </c>
       <c r="M17" s="5" t="n">
         <v>120620</v>
@@ -5018,7 +5018,7 @@
         <v>0.9967147340347456</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9833420558495257</v>
+        <v>0.9812338799131937</v>
       </c>
       <c r="P17" s="6" t="n">
         <v>1</v>
@@ -5030,7 +5030,7 @@
         <v>194569</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>192694</v>
+        <v>193050</v>
       </c>
       <c r="T17" s="5" t="n">
         <v>194965</v>
@@ -5039,7 +5039,7 @@
         <v>0.9979674894074766</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9883513795479191</v>
+        <v>0.9901753962316262</v>
       </c>
       <c r="W17" s="6" t="n">
         <v>1</v>
@@ -5147,19 +5147,19 @@
         <v>5478</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>2697</v>
+        <v>2723</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>9557</v>
+        <v>9777</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.04122159845207433</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0202995198480078</v>
+        <v>0.02049170156788094</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.07192042657249305</v>
+        <v>0.07357690479513493</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>10</v>
@@ -5168,19 +5168,19 @@
         <v>5478</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>2714</v>
+        <v>2912</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>10690</v>
+        <v>10238</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04006103851470649</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.01984864692624218</v>
+        <v>0.02129841492498169</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.07818546207356807</v>
+        <v>0.07487693676649788</v>
       </c>
     </row>
     <row r="20">
@@ -5210,19 +5210,19 @@
         <v>127403</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>123324</v>
+        <v>123104</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>130184</v>
+        <v>130158</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.9587784015479255</v>
+        <v>0.9587784015479257</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9280795734275071</v>
+        <v>0.9264230952048652</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9797004801519922</v>
+        <v>0.979508298432119</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>222</v>
@@ -5231,19 +5231,19 @@
         <v>131252</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>126040</v>
+        <v>126492</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>134016</v>
+        <v>133818</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.9599389614852935</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9218145379264321</v>
+        <v>0.9251230632335021</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9801513530737578</v>
+        <v>0.9787015850750183</v>
       </c>
     </row>
     <row r="21">
@@ -5335,19 +5335,19 @@
         <v>55763</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44045</v>
+        <v>43783</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>69323</v>
+        <v>70012</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09824361743983394</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07759891296472855</v>
+        <v>0.07713698387977175</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1221338822643868</v>
+        <v>0.1233478614454685</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>64</v>
@@ -5356,19 +5356,19 @@
         <v>38157</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29121</v>
+        <v>29184</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>47654</v>
+        <v>47381</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.07314524404331209</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.05582356771958742</v>
+        <v>0.05594499071097223</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.09135200984839847</v>
+        <v>0.09082786435065018</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>129</v>
@@ -5377,19 +5377,19 @@
         <v>93919</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>80182</v>
+        <v>79371</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>114081</v>
+        <v>108804</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.08622372327790075</v>
+        <v>0.08622372327790076</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.07361250701997633</v>
+        <v>0.07286725833846504</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.1047334717507707</v>
+        <v>0.0998891788692995</v>
       </c>
     </row>
     <row r="23">
@@ -5406,19 +5406,19 @@
         <v>511832</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>498272</v>
+        <v>497583</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>523550</v>
+        <v>523812</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.9017563825601661</v>
+        <v>0.9017563825601662</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.8778661177356127</v>
+        <v>0.8766521385545315</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.9224010870352716</v>
+        <v>0.9228630161202284</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>822</v>
@@ -5427,19 +5427,19 @@
         <v>483497</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>474000</v>
+        <v>474273</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>492533</v>
+        <v>492470</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9268547559566879</v>
+        <v>0.926854755956688</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9086479901516015</v>
+        <v>0.90917213564935</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9441764322804126</v>
+        <v>0.944055009289028</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1462</v>
@@ -5448,19 +5448,19 @@
         <v>995330</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>975168</v>
+        <v>980445</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1009067</v>
+        <v>1009878</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.9137762767220992</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8952665282492295</v>
+        <v>0.9001108211307005</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9263874929800239</v>
+        <v>0.9271327416615349</v>
       </c>
     </row>
     <row r="24">
